--- a/CircularPie/Final Presentation/1. ProjectPlan.xlsx
+++ b/CircularPie/Final Presentation/1. ProjectPlan.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive - Pace University\Desktop\PaceStudy\CS_Project_1\week11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashk\OneDrive\Desktop\Pace\Sem 2\Project 1\Git\CircularPie\Final Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F5AB9-EA4E-4ECA-9000-D299137AA411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B421122-5486-46CD-8F9D-A92F0E169AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Plan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjI20HbImxY2npHZGKF9s8S6D1c8g=="/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
   <si>
     <t>Color Coding</t>
   </si>
@@ -252,12 +263,6 @@
     <t>Evaluate Features to be Tested</t>
   </si>
   <si>
-    <t>Design Test Cases</t>
-  </si>
-  <si>
-    <t>Execute Test Cases</t>
-  </si>
-  <si>
     <t>Anaylze Test Results</t>
   </si>
   <si>
@@ -268,6 +273,15 @@
   </si>
   <si>
     <t xml:space="preserve">Prepare Application Demo for the Presentation PowerPoint </t>
+  </si>
+  <si>
+    <t>Execute Exploratory Testing</t>
+  </si>
+  <si>
+    <t>GUI Validation Testing</t>
+  </si>
+  <si>
+    <t>Cross Platform Testing</t>
   </si>
 </sst>
 </file>
@@ -333,7 +347,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +396,14 @@
         <bgColor rgb="FFE36C09"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFE36C09"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -890,11 +910,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1117,45 +1165,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1172,14 +1203,31 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1190,14 +1238,32 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1437,7 +1503,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -1450,23 +1516,23 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
@@ -1477,7 +1543,7 @@
       <c r="AF1" s="5"/>
     </row>
     <row r="2" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A2" s="100"/>
+      <c r="A2" s="109"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1496,13 +1562,13 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="106"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="99"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -1652,11 +1718,11 @@
       <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="88"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
@@ -1695,14 +1761,14 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="88"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="32" t="s">
         <v>14</v>
       </c>
@@ -1741,12 +1807,12 @@
       <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="97" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="88"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="38" t="s">
         <v>14</v>
       </c>
@@ -1785,12 +1851,12 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A8" s="85"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="88"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="38" t="s">
         <v>17</v>
       </c>
@@ -1829,12 +1895,12 @@
       <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="38" t="s">
         <v>19</v>
       </c>
@@ -1873,12 +1939,12 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="117" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="38" t="s">
         <v>21</v>
       </c>
@@ -1917,32 +1983,32 @@
       <c r="AF10" s="8"/>
     </row>
     <row r="11" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="112"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -1956,11 +2022,11 @@
       <c r="A12" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="88"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="32" t="s">
         <v>14</v>
       </c>
@@ -2000,11 +2066,11 @@
     </row>
     <row r="13" spans="1:32" ht="14.25" customHeight="1">
       <c r="A13" s="114"/>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="88"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="32" t="s">
         <v>14</v>
       </c>
@@ -2044,11 +2110,11 @@
     </row>
     <row r="14" spans="1:32" ht="14.25" customHeight="1">
       <c r="A14" s="114"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="88"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="46" t="s">
         <v>27</v>
       </c>
@@ -2088,11 +2154,11 @@
     </row>
     <row r="15" spans="1:32" ht="14.25" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="46" t="s">
         <v>29</v>
       </c>
@@ -2132,11 +2198,11 @@
     </row>
     <row r="16" spans="1:32" ht="14.25" customHeight="1">
       <c r="A16" s="114"/>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="46" t="s">
         <v>31</v>
       </c>
@@ -2176,11 +2242,11 @@
     </row>
     <row r="17" spans="1:32" ht="14.25" customHeight="1">
       <c r="A17" s="114"/>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="88"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="46" t="s">
         <v>31</v>
       </c>
@@ -2220,11 +2286,11 @@
     </row>
     <row r="18" spans="1:32" ht="14.25" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="88"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="42" t="s">
         <v>34</v>
       </c>
@@ -2264,11 +2330,11 @@
     </row>
     <row r="19" spans="1:32" ht="14.25" customHeight="1">
       <c r="A19" s="114"/>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="88"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="46" t="s">
         <v>36</v>
       </c>
@@ -2308,11 +2374,11 @@
     </row>
     <row r="20" spans="1:32" ht="14.25" customHeight="1">
       <c r="A20" s="114"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="88"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="46" t="s">
         <v>38</v>
       </c>
@@ -2390,11 +2456,11 @@
       <c r="A22" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="46" t="s">
         <v>42</v>
       </c>
@@ -2433,12 +2499,12 @@
       <c r="AF22" s="8"/>
     </row>
     <row r="23" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A23" s="85"/>
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="88"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="54" t="s">
         <v>44</v>
       </c>
@@ -2477,12 +2543,12 @@
       <c r="AF23" s="8"/>
     </row>
     <row r="24" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="92" t="s">
+      <c r="A24" s="92"/>
+      <c r="B24" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="88"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="54" t="s">
         <v>46</v>
       </c>
@@ -2521,12 +2587,12 @@
       <c r="AF24" s="8"/>
     </row>
     <row r="25" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="92" t="s">
+      <c r="A25" s="89"/>
+      <c r="B25" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="54" t="s">
         <v>48</v>
       </c>
@@ -2604,13 +2670,13 @@
       <c r="A27" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="57" t="s">
         <v>53</v>
       </c>
@@ -2649,9 +2715,9 @@
       <c r="AF27" s="8"/>
     </row>
     <row r="28" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A28" s="95"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="84" t="s">
+      <c r="A28" s="105"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="60" t="s">
@@ -2695,9 +2761,9 @@
       <c r="AF28" s="8"/>
     </row>
     <row r="29" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A29" s="95"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="60" t="s">
         <v>56</v>
       </c>
@@ -2739,9 +2805,9 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="30" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A30" s="95"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="61" t="s">
         <v>57</v>
       </c>
@@ -2783,9 +2849,9 @@
       <c r="AF30" s="8"/>
     </row>
     <row r="31" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A31" s="95"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="61" t="s">
         <v>58</v>
       </c>
@@ -2827,9 +2893,9 @@
       <c r="AF31" s="8"/>
     </row>
     <row r="32" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A32" s="95"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="60" t="s">
         <v>59</v>
       </c>
@@ -2871,14 +2937,14 @@
       <c r="AF32" s="8"/>
     </row>
     <row r="33" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="91" t="s">
+      <c r="A33" s="105"/>
+      <c r="B33" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="88"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="57" t="s">
         <v>53</v>
       </c>
@@ -2917,9 +2983,9 @@
       <c r="AF33" s="8"/>
     </row>
     <row r="34" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A34" s="95"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="84" t="s">
+      <c r="A34" s="105"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="93" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="60" t="s">
@@ -2935,7 +3001,7 @@
         <v>45041</v>
       </c>
       <c r="H34" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I34" s="42"/>
       <c r="J34" s="42"/>
@@ -2963,9 +3029,9 @@
       <c r="AF34" s="8"/>
     </row>
     <row r="35" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A35" s="95"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="61" t="s">
         <v>57</v>
       </c>
@@ -2979,7 +3045,7 @@
         <v>45041</v>
       </c>
       <c r="H35" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="42"/>
@@ -2991,11 +3057,11 @@
       <c r="P35" s="59"/>
       <c r="Q35" s="59"/>
       <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="42"/>
+      <c r="S35" s="124"/>
+      <c r="T35" s="124"/>
+      <c r="U35" s="124"/>
+      <c r="V35" s="124"/>
+      <c r="W35" s="48"/>
       <c r="X35" s="42"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
@@ -3007,9 +3073,9 @@
       <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A36" s="95"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="61" t="s">
         <v>58</v>
       </c>
@@ -3034,13 +3100,13 @@
       <c r="O36" s="62"/>
       <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="125"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="121"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
@@ -3051,9 +3117,9 @@
       <c r="AF36" s="8"/>
     </row>
     <row r="37" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A37" s="95"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="60" t="s">
         <v>61</v>
       </c>
@@ -3067,7 +3133,7 @@
         <v>45041</v>
       </c>
       <c r="H37" s="50">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
@@ -3078,13 +3144,13 @@
       <c r="O37" s="62"/>
       <c r="P37" s="59"/>
       <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="125"/>
+      <c r="T37" s="125"/>
+      <c r="U37" s="125"/>
+      <c r="V37" s="125"/>
+      <c r="W37" s="122"/>
+      <c r="X37" s="121"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
@@ -3095,9 +3161,9 @@
       <c r="AF37" s="8"/>
     </row>
     <row r="38" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A38" s="95"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="60" t="s">
         <v>62</v>
       </c>
@@ -3111,7 +3177,7 @@
         <v>45041</v>
       </c>
       <c r="H38" s="50">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
@@ -3120,14 +3186,14 @@
       <c r="M38" s="42"/>
       <c r="N38" s="62"/>
       <c r="O38" s="62"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="42"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="125"/>
+      <c r="V38" s="125"/>
+      <c r="W38" s="123"/>
       <c r="X38" s="42"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
@@ -3139,14 +3205,14 @@
       <c r="AF38" s="8"/>
     </row>
     <row r="39" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A39" s="95"/>
-      <c r="B39" s="91" t="s">
+      <c r="A39" s="105"/>
+      <c r="B39" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="88"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="57" t="s">
         <v>53</v>
       </c>
@@ -3157,7 +3223,7 @@
         <v>45041</v>
       </c>
       <c r="H39" s="50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="42"/>
@@ -3168,11 +3234,11 @@
       <c r="O39" s="62"/>
       <c r="P39" s="62"/>
       <c r="Q39" s="62"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="127"/>
+      <c r="U39" s="127"/>
+      <c r="V39" s="127"/>
       <c r="W39" s="62"/>
       <c r="X39" s="42"/>
       <c r="Y39" s="8"/>
@@ -3185,9 +3251,9 @@
       <c r="AF39" s="8"/>
     </row>
     <row r="40" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A40" s="95"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="84" t="s">
+      <c r="A40" s="105"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="60" t="s">
@@ -3203,7 +3269,7 @@
         <v>45041</v>
       </c>
       <c r="H40" s="50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
@@ -3214,11 +3280,11 @@
       <c r="O40" s="62"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="62"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
+      <c r="R40" s="126"/>
+      <c r="S40" s="126"/>
+      <c r="T40" s="126"/>
+      <c r="U40" s="126"/>
+      <c r="V40" s="126"/>
       <c r="W40" s="62"/>
       <c r="X40" s="42"/>
       <c r="Y40" s="8"/>
@@ -3231,9 +3297,9 @@
       <c r="AF40" s="8"/>
     </row>
     <row r="41" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="60" t="s">
         <v>65</v>
       </c>
@@ -3247,7 +3313,7 @@
         <v>45041</v>
       </c>
       <c r="H41" s="50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
@@ -3258,11 +3324,11 @@
       <c r="O41" s="62"/>
       <c r="P41" s="62"/>
       <c r="Q41" s="62"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
+      <c r="R41" s="126"/>
+      <c r="S41" s="126"/>
+      <c r="T41" s="126"/>
+      <c r="U41" s="126"/>
+      <c r="V41" s="126"/>
       <c r="W41" s="62"/>
       <c r="X41" s="42"/>
       <c r="Y41" s="8"/>
@@ -3275,14 +3341,14 @@
       <c r="AF41" s="8"/>
     </row>
     <row r="42" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A42" s="95"/>
-      <c r="B42" s="91" t="s">
+      <c r="A42" s="105"/>
+      <c r="B42" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="88"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="57" t="s">
         <v>53</v>
       </c>
@@ -3293,7 +3359,7 @@
         <v>45041</v>
       </c>
       <c r="H42" s="50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
@@ -3304,11 +3370,11 @@
       <c r="O42" s="62"/>
       <c r="P42" s="62"/>
       <c r="Q42" s="62"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="63"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="126"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="126"/>
       <c r="W42" s="62"/>
       <c r="X42" s="42"/>
       <c r="Y42" s="8"/>
@@ -3321,9 +3387,9 @@
       <c r="AF42" s="8"/>
     </row>
     <row r="43" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A43" s="95"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="84" t="s">
+      <c r="A43" s="105"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="93" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="60" t="s">
@@ -3339,7 +3405,7 @@
         <v>45041</v>
       </c>
       <c r="H43" s="50">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
@@ -3350,9 +3416,9 @@
       <c r="O43" s="62"/>
       <c r="P43" s="62"/>
       <c r="Q43" s="62"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="63"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="126"/>
       <c r="U43" s="63"/>
       <c r="V43" s="63"/>
       <c r="W43" s="62"/>
@@ -3367,9 +3433,9 @@
       <c r="AF43" s="8"/>
     </row>
     <row r="44" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="60" t="s">
         <v>68</v>
       </c>
@@ -3383,7 +3449,7 @@
         <v>45041</v>
       </c>
       <c r="H44" s="50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I44" s="42"/>
       <c r="J44" s="42"/>
@@ -3394,11 +3460,11 @@
       <c r="O44" s="62"/>
       <c r="P44" s="62"/>
       <c r="Q44" s="62"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="63"/>
+      <c r="R44" s="126"/>
+      <c r="S44" s="126"/>
+      <c r="T44" s="126"/>
+      <c r="U44" s="126"/>
+      <c r="V44" s="126"/>
       <c r="W44" s="62"/>
       <c r="X44" s="42"/>
       <c r="Y44" s="8"/>
@@ -3411,14 +3477,14 @@
       <c r="AF44" s="8"/>
     </row>
     <row r="45" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A45" s="95"/>
-      <c r="B45" s="91" t="s">
+      <c r="A45" s="105"/>
+      <c r="B45" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="C45" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="88"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="57" t="s">
         <v>53</v>
       </c>
@@ -3429,7 +3495,7 @@
         <v>45041</v>
       </c>
       <c r="H45" s="50">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>
@@ -3440,9 +3506,9 @@
       <c r="O45" s="62"/>
       <c r="P45" s="62"/>
       <c r="Q45" s="62"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="63"/>
-      <c r="T45" s="63"/>
+      <c r="R45" s="126"/>
+      <c r="S45" s="126"/>
+      <c r="T45" s="126"/>
       <c r="U45" s="63"/>
       <c r="V45" s="63"/>
       <c r="W45" s="62"/>
@@ -3457,12 +3523,12 @@
       <c r="AF45" s="8"/>
     </row>
     <row r="46" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A46" s="95"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="119" t="s">
+      <c r="A46" s="105"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="88"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="57" t="s">
         <v>29</v>
       </c>
@@ -3473,7 +3539,7 @@
         <v>45041</v>
       </c>
       <c r="H46" s="50">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="I46" s="42"/>
       <c r="J46" s="42"/>
@@ -3484,9 +3550,9 @@
       <c r="O46" s="62"/>
       <c r="P46" s="62"/>
       <c r="Q46" s="62"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="63"/>
-      <c r="T46" s="63"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="126"/>
+      <c r="T46" s="126"/>
       <c r="U46" s="63"/>
       <c r="V46" s="63"/>
       <c r="W46" s="62"/>
@@ -3537,25 +3603,25 @@
       <c r="AF47" s="8"/>
     </row>
     <row r="48" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="90"/>
-      <c r="D48" s="88"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="47">
-        <v>45035</v>
+        <v>45041</v>
       </c>
       <c r="G48" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H48" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="42"/>
       <c r="J48" s="42"/>
@@ -3570,8 +3636,8 @@
       <c r="S48" s="42"/>
       <c r="T48" s="42"/>
       <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
+      <c r="V48" s="126"/>
+      <c r="W48" s="126"/>
       <c r="X48" s="42"/>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
@@ -3583,23 +3649,23 @@
       <c r="AF48" s="8"/>
     </row>
     <row r="49" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A49" s="95"/>
-      <c r="B49" s="89" t="s">
+      <c r="A49" s="105"/>
+      <c r="B49" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="90"/>
-      <c r="D49" s="88"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="86"/>
       <c r="E49" s="57" t="s">
         <v>19</v>
       </c>
       <c r="F49" s="47">
-        <v>45035</v>
+        <v>45041</v>
       </c>
       <c r="G49" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H49" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I49" s="42"/>
       <c r="J49" s="42"/>
@@ -3614,8 +3680,8 @@
       <c r="S49" s="42"/>
       <c r="T49" s="42"/>
       <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
+      <c r="V49" s="126"/>
+      <c r="W49" s="63"/>
       <c r="X49" s="42"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
@@ -3627,25 +3693,25 @@
       <c r="AF49" s="8"/>
     </row>
     <row r="50" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A50" s="95"/>
-      <c r="B50" s="91" t="s">
+      <c r="A50" s="105"/>
+      <c r="B50" s="88" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="66"/>
       <c r="D50" s="66" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E50" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F50" s="47">
-        <v>45035</v>
+        <v>45041</v>
       </c>
       <c r="G50" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H50" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="42"/>
       <c r="J50" s="42"/>
@@ -3660,8 +3726,8 @@
       <c r="S50" s="42"/>
       <c r="T50" s="42"/>
       <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
+      <c r="V50" s="126"/>
+      <c r="W50" s="126"/>
       <c r="X50" s="42"/>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
@@ -3673,23 +3739,23 @@
       <c r="AF50" s="8"/>
     </row>
     <row r="51" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A51" s="95"/>
-      <c r="B51" s="85"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E51" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F51" s="47">
-        <v>45035</v>
+        <v>45041</v>
       </c>
       <c r="G51" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H51" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
@@ -3704,8 +3770,8 @@
       <c r="S51" s="42"/>
       <c r="T51" s="42"/>
       <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
+      <c r="V51" s="126"/>
+      <c r="W51" s="126"/>
       <c r="X51" s="42"/>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
@@ -3717,23 +3783,23 @@
       <c r="AF51" s="8"/>
     </row>
     <row r="52" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="86"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="89"/>
       <c r="C52" s="66"/>
       <c r="D52" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E52" s="57" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="47">
-        <v>45035</v>
+        <v>45041</v>
       </c>
       <c r="G52" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H52" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="42"/>
       <c r="J52" s="42"/>
@@ -3748,8 +3814,8 @@
       <c r="S52" s="42"/>
       <c r="T52" s="42"/>
       <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
+      <c r="V52" s="126"/>
+      <c r="W52" s="126"/>
       <c r="X52" s="42"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
@@ -3761,25 +3827,25 @@
       <c r="AF52" s="8"/>
     </row>
     <row r="53" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="91" t="s">
+      <c r="A53" s="105"/>
+      <c r="B53" s="88" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="66"/>
       <c r="D53" s="66" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E53" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F53" s="47">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="G53" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H53" s="50">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I53" s="42"/>
       <c r="J53" s="42"/>
@@ -3794,8 +3860,8 @@
       <c r="S53" s="42"/>
       <c r="T53" s="42"/>
       <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
+      <c r="V53" s="126"/>
+      <c r="W53" s="63"/>
       <c r="X53" s="42"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
@@ -3807,23 +3873,23 @@
       <c r="AF53" s="8"/>
     </row>
     <row r="54" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A54" s="95"/>
-      <c r="B54" s="85"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="66"/>
       <c r="D54" s="66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E54" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F54" s="47">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="G54" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H54" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
@@ -3838,8 +3904,8 @@
       <c r="S54" s="42"/>
       <c r="T54" s="42"/>
       <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
+      <c r="V54" s="126"/>
+      <c r="W54" s="126"/>
       <c r="X54" s="42"/>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
@@ -3851,23 +3917,23 @@
       <c r="AF54" s="8"/>
     </row>
     <row r="55" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A55" s="95"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="89"/>
       <c r="C55" s="66"/>
       <c r="D55" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E55" s="57" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="47">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="G55" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H55" s="50">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="42"/>
@@ -3882,8 +3948,8 @@
       <c r="S55" s="42"/>
       <c r="T55" s="42"/>
       <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
+      <c r="V55" s="126"/>
+      <c r="W55" s="63"/>
       <c r="X55" s="42"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
@@ -3895,25 +3961,25 @@
       <c r="AF55" s="8"/>
     </row>
     <row r="56" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A56" s="95"/>
-      <c r="B56" s="91" t="s">
+      <c r="A56" s="105"/>
+      <c r="B56" s="88" t="s">
         <v>63</v>
       </c>
       <c r="C56" s="66"/>
       <c r="D56" s="66" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E56" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F56" s="47">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="G56" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H56" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="42"/>
       <c r="J56" s="42"/>
@@ -3928,8 +3994,8 @@
       <c r="S56" s="42"/>
       <c r="T56" s="42"/>
       <c r="U56" s="42"/>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
+      <c r="V56" s="126"/>
+      <c r="W56" s="126"/>
       <c r="X56" s="42"/>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
@@ -3941,23 +4007,23 @@
       <c r="AF56" s="8"/>
     </row>
     <row r="57" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A57" s="95"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="92"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E57" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F57" s="47">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="G57" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H57" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
@@ -3972,8 +4038,8 @@
       <c r="S57" s="42"/>
       <c r="T57" s="42"/>
       <c r="U57" s="42"/>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
+      <c r="V57" s="126"/>
+      <c r="W57" s="126"/>
       <c r="X57" s="42"/>
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
@@ -3985,23 +4051,23 @@
       <c r="AF57" s="8"/>
     </row>
     <row r="58" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A58" s="95"/>
-      <c r="B58" s="86"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="89"/>
       <c r="C58" s="66"/>
       <c r="D58" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E58" s="57" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="47">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="G58" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H58" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="42"/>
       <c r="J58" s="42"/>
@@ -4016,8 +4082,8 @@
       <c r="S58" s="42"/>
       <c r="T58" s="42"/>
       <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
+      <c r="V58" s="126"/>
+      <c r="W58" s="126"/>
       <c r="X58" s="42"/>
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
@@ -4029,25 +4095,25 @@
       <c r="AF58" s="8"/>
     </row>
     <row r="59" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A59" s="95"/>
-      <c r="B59" s="91" t="s">
+      <c r="A59" s="105"/>
+      <c r="B59" s="88" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="66"/>
       <c r="D59" s="66" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E59" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F59" s="47">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="G59" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H59" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="42"/>
       <c r="J59" s="42"/>
@@ -4062,8 +4128,8 @@
       <c r="S59" s="42"/>
       <c r="T59" s="42"/>
       <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
+      <c r="V59" s="126"/>
+      <c r="W59" s="126"/>
       <c r="X59" s="42"/>
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
@@ -4075,23 +4141,23 @@
       <c r="AF59" s="8"/>
     </row>
     <row r="60" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A60" s="95"/>
-      <c r="B60" s="85"/>
+      <c r="A60" s="105"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="66"/>
       <c r="D60" s="66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E60" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F60" s="47">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="G60" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H60" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
@@ -4106,8 +4172,8 @@
       <c r="S60" s="42"/>
       <c r="T60" s="42"/>
       <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
+      <c r="V60" s="126"/>
+      <c r="W60" s="126"/>
       <c r="X60" s="42"/>
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
@@ -4119,23 +4185,23 @@
       <c r="AF60" s="8"/>
     </row>
     <row r="61" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A61" s="95"/>
-      <c r="B61" s="86"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E61" s="57" t="s">
         <v>19</v>
       </c>
       <c r="F61" s="47">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="G61" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H61" s="50">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I61" s="42"/>
       <c r="J61" s="42"/>
@@ -4150,8 +4216,8 @@
       <c r="S61" s="42"/>
       <c r="T61" s="42"/>
       <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
+      <c r="V61" s="126"/>
+      <c r="W61" s="63"/>
       <c r="X61" s="42"/>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
@@ -4163,25 +4229,25 @@
       <c r="AF61" s="8"/>
     </row>
     <row r="62" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A62" s="95"/>
-      <c r="B62" s="91" t="s">
+      <c r="A62" s="105"/>
+      <c r="B62" s="88" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="66"/>
       <c r="D62" s="66" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E62" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F62" s="47">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="G62" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H62" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="42"/>
       <c r="J62" s="42"/>
@@ -4196,8 +4262,8 @@
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
       <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
+      <c r="V62" s="126"/>
+      <c r="W62" s="126"/>
       <c r="X62" s="42"/>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
@@ -4209,23 +4275,23 @@
       <c r="AF62" s="8"/>
     </row>
     <row r="63" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A63" s="95"/>
-      <c r="B63" s="85"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="66"/>
       <c r="D63" s="66" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E63" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F63" s="47">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="G63" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H63" s="50">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I63" s="42"/>
       <c r="J63" s="42"/>
@@ -4240,8 +4306,8 @@
       <c r="S63" s="42"/>
       <c r="T63" s="42"/>
       <c r="U63" s="42"/>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
+      <c r="V63" s="126"/>
+      <c r="W63" s="63"/>
       <c r="X63" s="42"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
@@ -4253,23 +4319,23 @@
       <c r="AF63" s="8"/>
     </row>
     <row r="64" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A64" s="95"/>
-      <c r="B64" s="86"/>
+      <c r="A64" s="105"/>
+      <c r="B64" s="89"/>
       <c r="C64" s="66"/>
       <c r="D64" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E64" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="47">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="G64" s="47">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="H64" s="50">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I64" s="42"/>
       <c r="J64" s="42"/>
@@ -4284,8 +4350,8 @@
       <c r="S64" s="42"/>
       <c r="T64" s="42"/>
       <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
+      <c r="V64" s="126"/>
+      <c r="W64" s="63"/>
       <c r="X64" s="42"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
@@ -4298,7 +4364,7 @@
     </row>
     <row r="65" spans="1:32" ht="14.25" customHeight="1">
       <c r="A65" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -4334,13 +4400,13 @@
     </row>
     <row r="66" spans="1:32" ht="14.25" customHeight="1">
       <c r="A66" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
-      <c r="B66" s="96" t="s">
-        <v>80</v>
+      <c r="B66" s="106" t="s">
+        <v>78</v>
       </c>
-      <c r="C66" s="90"/>
-      <c r="D66" s="88"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="86"/>
       <c r="E66" s="70" t="s">
         <v>19</v>
       </c>
@@ -4351,7 +4417,7 @@
         <v>45055</v>
       </c>
       <c r="H66" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="71"/>
       <c r="J66" s="71"/>
@@ -4367,8 +4433,8 @@
       <c r="T66" s="71"/>
       <c r="U66" s="71"/>
       <c r="V66" s="71"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="42"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
@@ -37088,26 +37154,18 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="J1:X1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
     <mergeCell ref="A48:A64"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B7:D7"/>
@@ -37124,22 +37182,30 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="J1:X1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
